--- a/outputs/test-f__Atopobiaceae.xlsx
+++ b/outputs/test-f__Atopobiaceae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Row</t>
   </si>
@@ -61,34 +61,37 @@
     <t>hRUG891.fasta</t>
   </si>
   <si>
-    <t>1-g__Atopobium</t>
-  </si>
-  <si>
-    <t>2-g__Fannyhessea</t>
-  </si>
-  <si>
-    <t>3-g__Lancefieldella</t>
-  </si>
-  <si>
-    <t>4-g__Olegusella</t>
-  </si>
-  <si>
-    <t>5-g__Olsenella</t>
-  </si>
-  <si>
-    <t>6-g__Olsenella_B</t>
-  </si>
-  <si>
-    <t>7-g__Olsenella_E</t>
-  </si>
-  <si>
-    <t>8-g__Parolsenella</t>
-  </si>
-  <si>
-    <t>9-g__UBA7741</t>
-  </si>
-  <si>
-    <t>10-g__UBA7748</t>
+    <t>1-g__Lancefieldella</t>
+  </si>
+  <si>
+    <t>2-g__Olegusella</t>
+  </si>
+  <si>
+    <t>3-g__Olsenella</t>
+  </si>
+  <si>
+    <t>4-g__Olsenella_B</t>
+  </si>
+  <si>
+    <t>5-g__Olsenella_E</t>
+  </si>
+  <si>
+    <t>6-g__Parolsenella</t>
+  </si>
+  <si>
+    <t>7-g__RUG001</t>
+  </si>
+  <si>
+    <t>8-g__RUG033</t>
+  </si>
+  <si>
+    <t>9-g__RUG440</t>
+  </si>
+  <si>
+    <t>10-g__UBA1367</t>
+  </si>
+  <si>
+    <t>11-g__UBA7741</t>
   </si>
   <si>
     <t>prediction</t>
@@ -139,21 +142,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.85546875" customWidth="true"/>
-    <col min="3" max="3" width="17.28515625" customWidth="true"/>
-    <col min="4" max="4" width="18.28515625" customWidth="true"/>
-    <col min="5" max="5" width="15.5703125" customWidth="true"/>
-    <col min="6" max="6" width="15.5703125" customWidth="true"/>
-    <col min="7" max="7" width="16.42578125" customWidth="true"/>
-    <col min="8" max="8" width="16.28515625" customWidth="true"/>
-    <col min="9" max="9" width="16.85546875" customWidth="true"/>
-    <col min="10" max="10" width="15.5703125" customWidth="true"/>
-    <col min="11" max="11" width="15.5703125" customWidth="true"/>
-    <col min="12" max="12" width="10.28515625" customWidth="true"/>
+    <col min="2" max="2" width="18.28515625" customWidth="true"/>
+    <col min="3" max="3" width="15.28515625" customWidth="true"/>
+    <col min="4" max="4" width="14.28515625" customWidth="true"/>
+    <col min="5" max="5" width="16.42578125" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="16.85546875" customWidth="true"/>
+    <col min="8" max="8" width="12.5703125" customWidth="true"/>
+    <col min="9" max="9" width="12.5703125" customWidth="true"/>
+    <col min="10" max="10" width="12.5703125" customWidth="true"/>
+    <col min="11" max="11" width="14.5703125" customWidth="true"/>
+    <col min="12" max="12" width="14.5703125" customWidth="true"/>
+    <col min="13" max="13" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -193,43 +197,49 @@
       <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.12079934882440342</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.3597083346420957e-11</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.359708334642095e-11</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.3597083346420944e-11</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.47012265156165245</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.40907799944876461</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.3597083346420895e-11</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>2.3597083346420895e-11</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.3597083346420895e-11</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.359708334642095e-11</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -237,37 +247,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.089847419096239459</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.089802511374628843</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.089802511374628843</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.089802511374628843</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.089802511374628843</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.17680031654403944</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.089802511374628843</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.089802511374628843</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.10473468473731995</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.089802511374628025</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -275,37 +288,40 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8.4205109445084135e-12</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.2200329601031688e-14</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.2200329601031688e-14</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2.2200329601031688e-14</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2.2200329601031688e-14</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.058008523978932282</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2.2200329601031688e-14</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2.2200329601031688e-14</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.94199147601249189</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.2200329601031688e-14</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -313,37 +329,40 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.6162304201189056e-08</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.2199877950410104e-14</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2.2199877950410104e-14</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.98999514853789772</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.2199877950410104e-14</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.010004825299642665</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2.2199877950410104e-14</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.2199877950410104e-14</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2.2199877950410104e-14</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2.2199877950410104e-14</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -351,37 +370,40 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.18885106810770355</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0097785146213180841</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0097785146213180667</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0097785146213180529</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.009778514621318065</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.73292081492175198</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0097785146213180303</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0097785146213180529</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0097785146213180529</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0097785146213180841</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -389,37 +411,40 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.19650922130253257</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.1317762218680243e-07</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2.1317762218680249e-07</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2.1317762218680243e-07</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.47769394954377792</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.32579533691033424</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2.1317762218680254e-07</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2.1317762218680246e-07</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>2.1317762218680246e-07</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>2.1317762218680278e-07</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -427,37 +452,40 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9.4371586377855363e-08</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2.2199917624345893e-14</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2.2199917624345893e-14</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.98659566707088386</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2.2199917624345893e-14</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.013404238557374359</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2.2199917624345893e-14</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2.2199917624345893e-14</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2.2199917624345893e-14</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>2.2199917624345893e-14</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -465,37 +493,40 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.09252471475059125</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.092275342295612434</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.092275342295612447</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.092275342295612434</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.092275342295612434</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.15436468276388204</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.092275342295612475</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.092275342295612475</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.10718320641623948</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0.092275342295612489</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -503,37 +534,40 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.2722783265687372e-09</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.2199909358483765e-14</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2.2199909358483765e-14</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>2.2199909358483765e-14</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.98586129910654907</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.014138699621017112</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2.2199909358483765e-14</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.2199909358483765e-14</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>2.2199909358483765e-14</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2.2199909358483765e-14</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -541,37 +575,40 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.5613664238355472e-07</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2.2199985025612044e-14</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>2.2199985025612044e-14</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>2.2199985025612044e-14</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.97977376039036135</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.020226083472840863</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2.2199985025612044e-14</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.2199985025612044e-14</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2.2199985025612044e-14</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2.2199985025612044e-14</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -579,37 +616,40 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.0075324488960144e-09</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2.2200092466989306e-14</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>2.2200092466989306e-14</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>2.2200092466989306e-14</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.96894457030244774</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.031055426689864333</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2.2200092466989306e-14</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.2200092466989306e-14</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>2.2200092466989306e-14</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>2.2200092466989306e-14</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -617,37 +657,40 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.2482941331597512e-09</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2.2199975208158489e-14</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>2.2199975208158489e-14</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>2.2199975208158489e-14</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.98109736133755543</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.018902637413995057</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>2.2199975208158489e-14</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.2199975208158489e-14</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>2.2199975208158489e-14</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>2.2199975208158489e-14</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -655,37 +698,40 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.6543961127537729e-09</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2.220001655993437e-14</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>2.220001655993437e-14</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>2.220001655993437e-14</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.97796992068144195</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.022030076664006439</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>2.220001655993437e-14</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.220001655993437e-14</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>2.220001655993437e-14</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>2.220001655993437e-14</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -693,37 +739,40 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.21659607602290676</v>
+        <v>2.2200717695826932e-14</v>
       </c>
       <c r="C15">
-        <v>0.056415221604452816</v>
+        <v>2.2200717695826932e-14</v>
       </c>
       <c r="D15">
-        <v>0.056415221604452823</v>
+        <v>0.075831576837639095</v>
       </c>
       <c r="E15">
-        <v>0.056415221604452816</v>
+        <v>0.92416842316216119</v>
       </c>
       <c r="F15">
-        <v>0.056415221604452774</v>
+        <v>2.2200717695826932e-14</v>
       </c>
       <c r="G15">
-        <v>0.33208215114147083</v>
+        <v>2.2200717695826932e-14</v>
       </c>
       <c r="H15">
-        <v>0.056415221604452816</v>
+        <v>2.2200717695826932e-14</v>
       </c>
       <c r="I15">
-        <v>0.056415221604452774</v>
+        <v>2.2200717695826932e-14</v>
       </c>
       <c r="J15">
-        <v>0.056415221604452816</v>
+        <v>2.2200717695826932e-14</v>
       </c>
       <c r="K15">
-        <v>0.056415221604452823</v>
+        <v>2.2200717695826932e-14</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>2.2200717695826932e-14</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
